--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Masters\Advanced Software Development\Labs\Project\Check-In-Check-out-Framework\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study Materials\Advanced Software Development\Check-In-Check-out-Framework\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study Materials\Advanced Software Development\Check-In-Check-out-Framework\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Masters\Advanced Software Development\Labs\Project\Check-In-Check-out-Framework\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Assignee</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Logger - Console, File, Db</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -174,8 +177,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -450,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +495,7 @@
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -481,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -497,8 +528,11 @@
       <c r="E2" s="3">
         <v>42561</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -515,7 +549,7 @@
         <v>42561</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -532,7 +566,7 @@
         <v>42561</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -549,7 +583,7 @@
         <v>42561</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -566,7 +600,7 @@
         <v>42562</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -583,7 +617,7 @@
         <v>42563</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -600,7 +634,7 @@
         <v>42564</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -617,7 +651,7 @@
         <v>42565</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -634,7 +668,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FrameworkDevelopment" sheetId="1" r:id="rId1"/>
+    <sheet name="ApplicationDevelopment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Assignee</t>
   </si>
@@ -111,13 +112,43 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CRUD UI for System User - Admin, Staff</t>
+  </si>
+  <si>
+    <t>CRUD UI for Car</t>
+  </si>
+  <si>
+    <t>UI for Checkout Process</t>
+  </si>
+  <si>
+    <t>CRUD UI for Customer</t>
+  </si>
+  <si>
+    <t>UI for Checkin Process</t>
+  </si>
+  <si>
+    <t>UI for Login/Logout Process</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Logging Exceptions, Warning, Info etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +172,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,11 +233,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +558,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="3">
-        <v>42563</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -631,7 +705,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="3">
-        <v>42564</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,7 +722,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="3">
-        <v>42565</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -665,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="3">
-        <v>42566</v>
+        <v>42562</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -682,7 +756,145 @@
         <v>27</v>
       </c>
       <c r="E11" s="3">
-        <v>42567</v>
+        <v>42562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10">
+        <v>42563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="12">
+        <v>42563</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Tasks.xlsx
+++ b/docs/Tasks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FrameworkDevelopment" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Assignee</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Logging Exceptions, Warning, Info etc.</t>
+  </si>
+  <si>
+    <t>Database entities creation in MySQL</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -769,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,12 +883,23 @@
         <v>42563</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8">
+        <v>42563</v>
+      </c>
     </row>
     <row r="9" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>37</v>
